--- a/results/OpenSource Tools/Java - OpenSource tools (RossetaCode).xlsx
+++ b/results/OpenSource Tools/Java - OpenSource tools (RossetaCode).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\OpenSource Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\OpenSource Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="Z25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4208,12 +4208,12 @@
         <v>39.05999966106598</v>
       </c>
       <c r="AF49" s="9">
-        <f>_xlfn.VAR.P(I45,Q45,W45,Y45,AA45)</f>
-        <v>3.275027363163372</v>
+        <f>_xlfn.VAR.P(I45,Q45,W45)</f>
+        <v>4.2629720661348136</v>
       </c>
       <c r="AG49" s="9">
-        <f>_xlfn.VAR.P(H45,P45,V45,Z45)</f>
-        <v>99.958526288463872</v>
+        <f>_xlfn.VAR.P(H45,P45,V45)</f>
+        <v>3.9766938406099706</v>
       </c>
       <c r="AH49" s="9"/>
       <c r="AI49" s="24" t="s">

--- a/results/OpenSource Tools/Java - OpenSource tools (RossetaCode).xlsx
+++ b/results/OpenSource Tools/Java - OpenSource tools (RossetaCode).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>aks-test-for-primes</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>TPTR</t>
+  </si>
+  <si>
+    <t>Microsoft MI</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -450,11 +453,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,9 +551,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,6 +567,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF47" sqref="AF47"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG54" sqref="AG52:AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,12 +864,16 @@
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
     <col min="19" max="19" width="10.109375" customWidth="1"/>
     <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
     <col min="25" max="25" width="9.33203125" customWidth="1"/>
     <col min="27" max="27" width="10.109375" customWidth="1"/>
     <col min="28" max="28" width="11.109375" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
@@ -934,7 +957,7 @@
         <v>53</v>
       </c>
       <c r="AA11" s="17"/>
-      <c r="AB11" s="43" t="s">
+      <c r="AB11" s="42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -968,7 +991,7 @@
       </c>
       <c r="W12" s="2"/>
       <c r="Z12" s="19"/>
-      <c r="AB12" s="47" t="s">
+      <c r="AB12" s="46" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1049,7 +1072,7 @@
       <c r="AA13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB13" s="48"/>
+      <c r="AB13" s="47"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
@@ -1070,7 +1093,7 @@
       <c r="G14">
         <v>68</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <f t="shared" ref="H14:H44" si="0">171 - 5.2 * LN(F14) - 0.23 * (I14) - 16.2 * LN($AB14)</f>
         <v>72.769243199891349</v>
       </c>
@@ -1086,18 +1109,18 @@
       <c r="L14">
         <v>1879</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="43">
         <f>J14*LOG(K14,2)</f>
         <v>1846.9794963614743</v>
       </c>
       <c r="N14">
         <v>71</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <f>(G55/2)*(H55/F55)</f>
         <v>71.333333333333329</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <f t="shared" ref="P14:P44" si="1">171 - 5.2 * LN(L14) - 0.23 * (Q14) - 16.2 * LN($AB14)</f>
         <v>71.030930215482528</v>
       </c>
@@ -1112,15 +1135,15 @@
         <f t="shared" ref="S14:S31" si="3">J55+K55</f>
         <v>41</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="44">
         <f t="shared" ref="T14:T44" si="4">R14*LOG(S14,2)</f>
         <v>1076.8679529282349</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U14" s="44">
         <f t="shared" ref="U14:U31" si="5">(K55/2)*(L55/J55)</f>
         <v>61.71875</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="44">
         <f t="shared" ref="V14:V44" si="6">171 - 5.2 * LN(T14) - 0.23 * (W14) - 16.2 * LN($AB14)</f>
         <v>75.133181483485004</v>
       </c>
@@ -1133,7 +1156,7 @@
       <c r="Y14" s="2">
         <v>3</v>
       </c>
-      <c r="Z14" s="45">
+      <c r="Z14" s="44">
         <v>101.94</v>
       </c>
       <c r="AA14" s="2">
@@ -1164,7 +1187,7 @@
       <c r="G15">
         <v>22</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="44">
         <f t="shared" si="0"/>
         <v>81.59183925301059</v>
       </c>
@@ -1180,18 +1203,18 @@
       <c r="L15">
         <v>2016</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="43">
         <f t="shared" ref="M15:M44" si="7">J15*LOG(K15,2)</f>
         <v>1492.9653474815379</v>
       </c>
       <c r="N15">
         <v>36</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="44">
         <f t="shared" ref="O15:O17" si="8">(G56/2)*(H56/F56)</f>
         <v>36.445945945945944</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="44">
         <f t="shared" si="1"/>
         <v>77.502708812257424</v>
       </c>
@@ -1206,15 +1229,15 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="44">
         <f t="shared" si="4"/>
         <v>741.52593554569262</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="44">
         <f t="shared" si="5"/>
         <v>19.294117647058822</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="44">
         <f t="shared" si="6"/>
         <v>83.048543365924587</v>
       </c>
@@ -1227,7 +1250,7 @@
       <c r="Y15" s="2">
         <v>3</v>
       </c>
-      <c r="Z15" s="45">
+      <c r="Z15" s="44">
         <v>79.989999999999995</v>
       </c>
       <c r="AA15" s="2">
@@ -1258,7 +1281,7 @@
       <c r="G16">
         <v>42</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="44">
         <f t="shared" si="0"/>
         <v>64.07304247578206</v>
       </c>
@@ -1274,18 +1297,18 @@
       <c r="L16">
         <v>2296</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="43">
         <f t="shared" si="7"/>
         <v>3047.9429507125024</v>
       </c>
       <c r="N16">
         <v>80</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <f t="shared" si="8"/>
         <v>80.878378378378386</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="44">
         <f t="shared" si="1"/>
         <v>63.4201659223951</v>
       </c>
@@ -1300,15 +1323,15 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="44">
         <f t="shared" si="4"/>
         <v>1785.4777304286363</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="44">
         <f t="shared" si="5"/>
         <v>45.222222222222214</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="44">
         <f t="shared" si="6"/>
         <v>66.07107472967995</v>
       </c>
@@ -1321,7 +1344,7 @@
       <c r="Y16" s="2">
         <v>2.4</v>
       </c>
-      <c r="Z16" s="45">
+      <c r="Z16" s="44">
         <v>97.66</v>
       </c>
       <c r="AA16" s="2">
@@ -1352,7 +1375,7 @@
       <c r="G17">
         <v>26</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="44">
         <f t="shared" si="0"/>
         <v>74.812164799282712</v>
       </c>
@@ -1368,18 +1391,18 @@
       <c r="L17">
         <v>2013</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="43">
         <f t="shared" si="7"/>
         <v>1583.6312592719148</v>
       </c>
       <c r="N17">
         <v>41</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <f t="shared" si="8"/>
         <v>41.628571428571426</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="44">
         <f t="shared" si="1"/>
         <v>72.238609783684112</v>
       </c>
@@ -1394,15 +1417,15 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="44">
         <f t="shared" si="4"/>
         <v>965.87512633697338</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="44">
         <f t="shared" si="5"/>
         <v>35.795454545454547</v>
       </c>
-      <c r="V17" s="45">
+      <c r="V17" s="44">
         <f t="shared" si="6"/>
         <v>76.402213500328756</v>
       </c>
@@ -1415,7 +1438,7 @@
       <c r="Y17" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z17" s="45">
+      <c r="Z17" s="44">
         <v>97.59</v>
       </c>
       <c r="AA17" s="2">
@@ -1446,7 +1469,7 @@
       <c r="G18">
         <v>26</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <f t="shared" si="0"/>
         <v>77.794074995095428</v>
       </c>
@@ -1462,18 +1485,18 @@
       <c r="L18">
         <v>2256</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="43">
         <f t="shared" si="7"/>
         <v>1931.0205955244703</v>
       </c>
       <c r="N18">
         <v>36</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" ref="O18:O31" si="9">(G59/2)*(H59/F59)</f>
         <v>36.951219512195124</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="44">
         <f t="shared" si="1"/>
         <v>75.378794768605786</v>
       </c>
@@ -1488,15 +1511,15 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="44">
         <f t="shared" si="4"/>
         <v>1213.4290808015658</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="44">
         <f t="shared" si="5"/>
         <v>28.333333333333336</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="44">
         <f t="shared" si="6"/>
         <v>78.833538529910697</v>
       </c>
@@ -1509,7 +1532,7 @@
       <c r="Y18" s="2">
         <v>3</v>
       </c>
-      <c r="Z18" s="45">
+      <c r="Z18" s="44">
         <v>91.24</v>
       </c>
       <c r="AA18" s="2">
@@ -1540,7 +1563,7 @@
       <c r="G19">
         <v>64</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="44">
         <f t="shared" si="0"/>
         <v>60.843046866602577</v>
       </c>
@@ -1556,18 +1579,18 @@
       <c r="L19">
         <v>3025</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="43">
         <f t="shared" si="7"/>
         <v>3444.4779085203245</v>
       </c>
       <c r="N19">
         <v>63</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <f t="shared" si="9"/>
         <v>63.111111111111114</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="44">
         <f t="shared" si="1"/>
         <v>61.427628282309627</v>
       </c>
@@ -1582,15 +1605,15 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="44">
         <f t="shared" si="4"/>
         <v>2250.6862053262389</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="44">
         <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
-      <c r="V19" s="45">
+      <c r="V19" s="44">
         <f t="shared" si="6"/>
         <v>64.172643178725707</v>
       </c>
@@ -1603,7 +1626,7 @@
       <c r="Y19" s="2">
         <v>2.8</v>
       </c>
-      <c r="Z19" s="45">
+      <c r="Z19" s="44">
         <v>91.61</v>
       </c>
       <c r="AA19" s="2">
@@ -1634,7 +1657,7 @@
       <c r="G20">
         <v>8</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="44">
         <f t="shared" si="0"/>
         <v>95.568976760424022</v>
       </c>
@@ -1650,18 +1673,18 @@
       <c r="L20">
         <v>1232</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="43">
         <f t="shared" si="7"/>
         <v>670.1955000865388</v>
       </c>
       <c r="N20">
         <v>17</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="44">
         <f t="shared" si="9"/>
         <v>17.888888888888889</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="44">
         <f t="shared" si="1"/>
         <v>89.894337192858188</v>
       </c>
@@ -1676,15 +1699,15 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="44">
         <f t="shared" si="4"/>
         <v>208</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="44">
         <f t="shared" si="5"/>
         <v>5.8333333333333339</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="44">
         <f t="shared" si="6"/>
         <v>99.144388727697361</v>
       </c>
@@ -1697,7 +1720,7 @@
       <c r="Y20" s="2">
         <v>1</v>
       </c>
-      <c r="Z20" s="45">
+      <c r="Z20" s="44">
         <v>92.89</v>
       </c>
       <c r="AA20" s="2">
@@ -1728,7 +1751,7 @@
       <c r="G21">
         <v>26</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="44">
         <f t="shared" si="0"/>
         <v>82.161212106741985</v>
       </c>
@@ -1744,18 +1767,18 @@
       <c r="L21">
         <v>1741</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="43">
         <f t="shared" si="7"/>
         <v>1199.0987909085293</v>
       </c>
       <c r="N21">
         <v>31</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="44">
         <f t="shared" si="9"/>
         <v>31.500000000000004</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="44">
         <f t="shared" si="1"/>
         <v>79.130693950340586</v>
       </c>
@@ -1770,15 +1793,15 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="44">
         <f t="shared" si="4"/>
         <v>651.41055018173131</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="44">
         <f t="shared" si="5"/>
         <v>17.2</v>
       </c>
-      <c r="V21" s="45">
+      <c r="V21" s="44">
         <f t="shared" si="6"/>
         <v>84.587683174981279</v>
       </c>
@@ -1791,7 +1814,7 @@
       <c r="Y21" s="2">
         <v>4</v>
       </c>
-      <c r="Z21" s="45">
+      <c r="Z21" s="44">
         <v>81.03</v>
       </c>
       <c r="AA21" s="2">
@@ -1822,7 +1845,7 @@
       <c r="G22">
         <v>32</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="44">
         <f t="shared" si="0"/>
         <v>71.81801583523621</v>
       </c>
@@ -1838,18 +1861,18 @@
       <c r="L22">
         <v>2548</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="43">
         <f t="shared" si="7"/>
         <v>1905.1031083712501</v>
       </c>
       <c r="N22">
         <v>40</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="44">
         <f t="shared" si="9"/>
         <v>40.125</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="44">
         <f t="shared" si="1"/>
         <v>70.553060310212331</v>
       </c>
@@ -1864,15 +1887,15 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="44">
         <f t="shared" si="4"/>
         <v>868.20236075233561</v>
       </c>
-      <c r="U22" s="45">
+      <c r="U22" s="44">
         <f t="shared" si="5"/>
         <v>16.2</v>
       </c>
-      <c r="V22" s="45">
+      <c r="V22" s="44">
         <f t="shared" si="6"/>
         <v>77.071584122631705</v>
       </c>
@@ -1885,7 +1908,7 @@
       <c r="Y22" s="2">
         <v>2.4</v>
       </c>
-      <c r="Z22" s="45">
+      <c r="Z22" s="44">
         <v>102.77</v>
       </c>
       <c r="AA22" s="2">
@@ -1916,7 +1939,7 @@
       <c r="G23">
         <v>13</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="44">
         <f t="shared" si="0"/>
         <v>68.284735412984247</v>
       </c>
@@ -1932,18 +1955,18 @@
       <c r="L23">
         <v>4205</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="43">
         <f t="shared" si="7"/>
         <v>2737.0355964788655</v>
       </c>
       <c r="N23">
         <v>37</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="44">
         <f t="shared" si="9"/>
         <v>37.916666666666664</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="44">
         <f t="shared" si="1"/>
         <v>61.54224862271731</v>
       </c>
@@ -1958,15 +1981,15 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="44">
         <f t="shared" si="4"/>
         <v>1544.7564092673229</v>
       </c>
-      <c r="U23" s="45">
+      <c r="U23" s="44">
         <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="V23" s="45">
+      <c r="V23" s="44">
         <f t="shared" si="6"/>
         <v>67.347570531649893</v>
       </c>
@@ -1979,7 +2002,7 @@
       <c r="Y23" s="2">
         <v>3</v>
       </c>
-      <c r="Z23" s="45">
+      <c r="Z23" s="44">
         <v>96.48</v>
       </c>
       <c r="AA23" s="2">
@@ -2010,7 +2033,7 @@
       <c r="G24">
         <v>20</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="44">
         <f t="shared" si="0"/>
         <v>88.086611619519019</v>
       </c>
@@ -2026,18 +2049,18 @@
       <c r="L24">
         <v>1310</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="43">
         <f t="shared" si="7"/>
         <v>795.78372275823608</v>
       </c>
       <c r="N24">
         <v>25</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="44">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="44">
         <f t="shared" si="1"/>
         <v>85.285619973288661</v>
       </c>
@@ -2052,15 +2075,15 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="44">
         <f t="shared" si="4"/>
         <v>425.73049040643218</v>
       </c>
-      <c r="U24" s="45">
+      <c r="U24" s="44">
         <f t="shared" si="5"/>
         <v>16.03125</v>
       </c>
-      <c r="V24" s="45">
+      <c r="V24" s="44">
         <f t="shared" si="6"/>
         <v>91.360294766453151</v>
       </c>
@@ -2073,7 +2096,7 @@
       <c r="Y24" s="2">
         <v>2</v>
       </c>
-      <c r="Z24" s="45">
+      <c r="Z24" s="44">
         <v>102.95</v>
       </c>
       <c r="AA24" s="2">
@@ -2104,7 +2127,7 @@
       <c r="G25">
         <v>24</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="44">
         <f t="shared" si="0"/>
         <v>84.819712792229723</v>
       </c>
@@ -2120,18 +2143,18 @@
       <c r="L25">
         <v>1313</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <f t="shared" si="7"/>
         <v>869.15385322530756</v>
       </c>
       <c r="N25">
         <v>31</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="44">
         <f t="shared" si="9"/>
         <v>31.18181818181818</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="44">
         <f t="shared" si="1"/>
         <v>80.799164601988764</v>
       </c>
@@ -2146,15 +2169,15 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="44">
         <f t="shared" si="4"/>
         <v>476.08213752250214</v>
       </c>
-      <c r="U25" s="45">
+      <c r="U25" s="44">
         <f t="shared" si="5"/>
         <v>41.230769230769234</v>
       </c>
-      <c r="V25" s="45">
+      <c r="V25" s="44">
         <f t="shared" si="6"/>
         <v>86.649457883103139</v>
       </c>
@@ -2167,7 +2190,7 @@
       <c r="Y25" s="2">
         <v>3.5</v>
       </c>
-      <c r="Z25" s="45">
+      <c r="Z25" s="44">
         <v>98.33</v>
       </c>
       <c r="AA25" s="2">
@@ -2198,7 +2221,7 @@
       <c r="G26">
         <v>9</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="44">
         <f t="shared" si="0"/>
         <v>93.515613115779075</v>
       </c>
@@ -2214,18 +2237,18 @@
       <c r="L26">
         <v>1358</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="43">
         <f t="shared" si="7"/>
         <v>1004.0192855289548</v>
       </c>
       <c r="N26">
         <v>23</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="44">
         <f t="shared" si="9"/>
         <v>23.45</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="44">
         <f t="shared" si="1"/>
         <v>89.38799153992727</v>
       </c>
@@ -2240,15 +2263,15 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="44">
         <f t="shared" si="4"/>
         <v>620.64324505034097</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="44">
         <f t="shared" si="5"/>
         <v>12.521739130434781</v>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="44">
         <f t="shared" si="6"/>
         <v>93.459653294532956</v>
       </c>
@@ -2261,7 +2284,7 @@
       <c r="Y26" s="2">
         <v>1</v>
       </c>
-      <c r="Z26" s="45">
+      <c r="Z26" s="44">
         <v>105.39</v>
       </c>
       <c r="AA26" s="2">
@@ -2292,7 +2315,7 @@
       <c r="G27">
         <v>54</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="44">
         <f t="shared" si="0"/>
         <v>58.289999623839748</v>
       </c>
@@ -2308,18 +2331,18 @@
       <c r="L27">
         <v>3057</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="43">
         <f t="shared" si="7"/>
         <v>4316.7721422186487</v>
       </c>
       <c r="N27">
         <v>93</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="44">
         <f t="shared" si="9"/>
         <v>93.061224489795919</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="44">
         <f t="shared" si="1"/>
         <v>58.162995092034024</v>
       </c>
@@ -2334,15 +2357,15 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="44">
         <f t="shared" si="4"/>
         <v>2823.4937047008721</v>
       </c>
-      <c r="U27" s="45">
+      <c r="U27" s="44">
         <f t="shared" si="5"/>
         <v>82.22727272727272</v>
       </c>
-      <c r="V27" s="45">
+      <c r="V27" s="44">
         <f t="shared" si="6"/>
         <v>60.692182008455575</v>
       </c>
@@ -2355,7 +2378,7 @@
       <c r="Y27" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z27" s="45">
+      <c r="Z27" s="44">
         <v>96.78</v>
       </c>
       <c r="AA27" s="2">
@@ -2386,7 +2409,7 @@
       <c r="G28">
         <v>24</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="44">
         <f t="shared" si="0"/>
         <v>70.081653494384582</v>
       </c>
@@ -2402,18 +2425,18 @@
       <c r="L28">
         <v>2262</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="43">
         <f t="shared" si="7"/>
         <v>2047.8657907950592</v>
       </c>
       <c r="N28">
         <v>39</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="44">
         <f t="shared" si="9"/>
         <v>39.069767441860463</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="44">
         <f t="shared" si="1"/>
         <v>69.235328628638698</v>
       </c>
@@ -2428,15 +2451,15 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="44">
         <f t="shared" si="4"/>
         <v>1164.272856421891</v>
       </c>
-      <c r="U28" s="45">
+      <c r="U28" s="44">
         <f t="shared" si="5"/>
         <v>28.134615384615387</v>
       </c>
-      <c r="V28" s="45">
+      <c r="V28" s="44">
         <f t="shared" si="6"/>
         <v>73.769922372870369</v>
       </c>
@@ -2449,7 +2472,7 @@
       <c r="Y28" s="2">
         <v>3.3</v>
       </c>
-      <c r="Z28" s="45">
+      <c r="Z28" s="44">
         <v>85.39</v>
       </c>
       <c r="AA28" s="2">
@@ -2480,7 +2503,7 @@
       <c r="G29">
         <v>20</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="44">
         <f t="shared" si="0"/>
         <v>86.721357512678026</v>
       </c>
@@ -2496,18 +2519,18 @@
       <c r="L29">
         <v>1564</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="43">
         <f t="shared" si="7"/>
         <v>987.25033674979284</v>
       </c>
       <c r="N29">
         <v>27</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="44">
         <f t="shared" si="9"/>
         <v>27.3</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="44">
         <f t="shared" si="1"/>
         <v>82.972726519133204</v>
       </c>
@@ -2522,15 +2545,15 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="44">
         <f t="shared" si="4"/>
         <v>525.14480890100879</v>
       </c>
-      <c r="U29" s="45">
+      <c r="U29" s="44">
         <f t="shared" si="5"/>
         <v>15.46875</v>
       </c>
-      <c r="V29" s="45">
+      <c r="V29" s="44">
         <f t="shared" si="6"/>
         <v>88.762631443490193</v>
       </c>
@@ -2543,7 +2566,7 @@
       <c r="Y29" s="2">
         <v>1.5</v>
       </c>
-      <c r="Z29" s="45">
+      <c r="Z29" s="44">
         <v>100.08</v>
       </c>
       <c r="AA29" s="2">
@@ -2574,7 +2597,7 @@
       <c r="G30">
         <v>32</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="44">
         <f t="shared" si="0"/>
         <v>70.286264420140157</v>
       </c>
@@ -2590,18 +2613,18 @@
       <c r="L30">
         <v>1831</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="43">
         <f t="shared" si="7"/>
         <v>1571.9078259421351</v>
       </c>
       <c r="N30">
         <v>49</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="44">
         <f t="shared" si="9"/>
         <v>49.785714285714285</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="44">
         <f t="shared" si="1"/>
         <v>68.932946893456858</v>
       </c>
@@ -2616,15 +2639,15 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="44">
         <f t="shared" si="4"/>
         <v>931.33741660528847</v>
       </c>
-      <c r="U30" s="45">
+      <c r="U30" s="44">
         <f t="shared" si="5"/>
         <v>46.5</v>
       </c>
-      <c r="V30" s="45">
+      <c r="V30" s="44">
         <f t="shared" si="6"/>
         <v>73.368125621328517</v>
       </c>
@@ -2637,7 +2660,7 @@
       <c r="Y30" s="2">
         <v>5.5</v>
       </c>
-      <c r="Z30" s="45">
+      <c r="Z30" s="44">
         <v>85.37</v>
       </c>
       <c r="AA30" s="2">
@@ -2668,7 +2691,7 @@
       <c r="G31">
         <v>20</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="44">
         <f t="shared" si="0"/>
         <v>89.517839202525934</v>
       </c>
@@ -2684,18 +2707,18 @@
       <c r="L31">
         <v>1112</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="43">
         <f t="shared" si="7"/>
         <v>702.95719633019837</v>
       </c>
       <c r="N31">
         <v>27</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="44">
         <f t="shared" si="9"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="44">
         <f t="shared" si="1"/>
         <v>86.783617053067402</v>
       </c>
@@ -2710,15 +2733,15 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="44">
         <f t="shared" si="4"/>
         <v>389.90077517740446</v>
       </c>
-      <c r="U31" s="45">
+      <c r="U31" s="44">
         <f t="shared" si="5"/>
         <v>16.692307692307693</v>
       </c>
-      <c r="V31" s="45">
+      <c r="V31" s="44">
         <f t="shared" si="6"/>
         <v>92.578337644602371</v>
       </c>
@@ -2731,7 +2754,7 @@
       <c r="Y31" s="2">
         <v>2.5</v>
       </c>
-      <c r="Z31" s="45">
+      <c r="Z31" s="44">
         <v>104.35</v>
       </c>
       <c r="AA31" s="2">
@@ -2762,7 +2785,7 @@
       <c r="G32">
         <v>57</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="44">
         <f t="shared" si="0"/>
         <v>55.573967254983643</v>
       </c>
@@ -2778,18 +2801,18 @@
       <c r="L32">
         <v>3490</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="43">
         <f t="shared" si="7"/>
         <v>4020.7516322985402</v>
       </c>
       <c r="N32">
         <v>70</v>
       </c>
-      <c r="O32" s="45">
+      <c r="O32" s="44">
         <f t="shared" ref="O32:O44" si="10">(G73/2)*(H73/F73)</f>
         <v>70.6875</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="44">
         <f t="shared" si="1"/>
         <v>53.971331715297453</v>
       </c>
@@ -2804,15 +2827,15 @@
         <f t="shared" ref="S32:S44" si="12">J73+K73</f>
         <v>65</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="44">
         <f t="shared" si="4"/>
         <v>2475.1931711546949</v>
       </c>
-      <c r="U32" s="45">
+      <c r="U32" s="44">
         <f t="shared" ref="U32:U44" si="13">(K73/2)*(L73/J73)</f>
         <v>56.131578947368425</v>
       </c>
-      <c r="V32" s="45">
+      <c r="V32" s="44">
         <f t="shared" si="6"/>
         <v>58.172964845594777</v>
       </c>
@@ -2825,7 +2848,7 @@
       <c r="Y32" s="2">
         <v>3.8</v>
       </c>
-      <c r="Z32" s="45">
+      <c r="Z32" s="44">
         <v>93.91</v>
       </c>
       <c r="AA32" s="2">
@@ -2856,7 +2879,7 @@
       <c r="G33">
         <v>22</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="44">
         <f t="shared" si="0"/>
         <v>84.009183618654163</v>
       </c>
@@ -2872,18 +2895,18 @@
       <c r="L33">
         <v>1310</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="43">
         <f t="shared" si="7"/>
         <v>987.67483321057671</v>
       </c>
       <c r="N33">
         <v>30</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="44">
         <f t="shared" si="10"/>
         <v>30.333333333333336</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="44">
         <f t="shared" si="1"/>
         <v>80.351059384148272</v>
       </c>
@@ -2898,15 +2921,15 @@
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="44">
         <f t="shared" si="4"/>
         <v>524.6619474737779</v>
       </c>
-      <c r="U33" s="45">
+      <c r="U33" s="44">
         <f t="shared" si="13"/>
         <v>19.821428571428569</v>
       </c>
-      <c r="V33" s="45">
+      <c r="V33" s="44">
         <f t="shared" si="6"/>
         <v>86.190206391144187</v>
       </c>
@@ -2919,7 +2942,7 @@
       <c r="Y33" s="2">
         <v>3.3</v>
       </c>
-      <c r="Z33" s="45">
+      <c r="Z33" s="44">
         <v>106.41</v>
       </c>
       <c r="AA33" s="2">
@@ -2950,7 +2973,7 @@
       <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="44">
         <f t="shared" si="0"/>
         <v>67.032448319363553</v>
       </c>
@@ -2966,18 +2989,18 @@
       <c r="L34">
         <v>2804</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="43">
         <f t="shared" si="7"/>
         <v>2447.6575217779628</v>
       </c>
       <c r="N34">
         <v>46</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="44">
         <f t="shared" si="10"/>
         <v>49.229166666666671</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="44">
         <f t="shared" si="1"/>
         <v>65.275837161893762</v>
       </c>
@@ -2992,15 +3015,15 @@
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="T34" s="45">
+      <c r="T34" s="44">
         <f t="shared" si="4"/>
         <v>1503.1535255164115</v>
       </c>
-      <c r="U34" s="45">
+      <c r="U34" s="44">
         <f t="shared" si="13"/>
         <v>34.333333333333329</v>
       </c>
-      <c r="V34" s="45">
+      <c r="V34" s="44">
         <f t="shared" si="6"/>
         <v>69.782942093236372</v>
       </c>
@@ -3013,7 +3036,7 @@
       <c r="Y34" s="2">
         <v>3</v>
       </c>
-      <c r="Z34" s="45">
+      <c r="Z34" s="44">
         <v>82.33</v>
       </c>
       <c r="AA34" s="2">
@@ -3044,7 +3067,7 @@
       <c r="G35">
         <v>42</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="44">
         <f t="shared" si="0"/>
         <v>74.414404843029814</v>
       </c>
@@ -3060,18 +3083,18 @@
       <c r="L35">
         <v>2606</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="43">
         <f t="shared" si="7"/>
         <v>2375.8820387299302</v>
       </c>
       <c r="N35">
         <v>46</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="44">
         <f t="shared" si="10"/>
         <v>46.170212765957444</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="44">
         <f t="shared" si="1"/>
         <v>73.548434147379737</v>
       </c>
@@ -3086,15 +3109,15 @@
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="T35" s="45">
+      <c r="T35" s="44">
         <f t="shared" si="4"/>
         <v>1386.8333314964564</v>
       </c>
-      <c r="U35" s="45">
+      <c r="U35" s="44">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="V35" s="45">
+      <c r="V35" s="44">
         <f t="shared" si="6"/>
         <v>77.288560395931739</v>
       </c>
@@ -3107,7 +3130,7 @@
       <c r="Y35" s="2">
         <v>2</v>
       </c>
-      <c r="Z35" s="45">
+      <c r="Z35" s="44">
         <v>97.76</v>
       </c>
       <c r="AA35" s="2">
@@ -3138,7 +3161,7 @@
       <c r="G36">
         <v>36</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="44">
         <f t="shared" si="0"/>
         <v>61.613634241390827</v>
       </c>
@@ -3154,18 +3177,18 @@
       <c r="L36">
         <v>4325</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="43">
         <f t="shared" si="7"/>
         <v>3553.2967705078863</v>
       </c>
       <c r="N36">
         <v>43</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="44">
         <f t="shared" si="10"/>
         <v>43.040540540540547</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="44">
         <f t="shared" si="1"/>
         <v>59.066347511298886</v>
       </c>
@@ -3180,15 +3203,15 @@
         <f t="shared" si="12"/>
         <v>64</v>
       </c>
-      <c r="T36" s="45">
+      <c r="T36" s="44">
         <f t="shared" si="4"/>
         <v>1932</v>
       </c>
-      <c r="U36" s="45">
+      <c r="U36" s="44">
         <f t="shared" si="13"/>
         <v>26.616279069767444</v>
       </c>
-      <c r="V36" s="45">
+      <c r="V36" s="44">
         <f t="shared" si="6"/>
         <v>64.636800815185183</v>
       </c>
@@ -3201,7 +3224,7 @@
       <c r="Y36" s="2">
         <v>3.2</v>
       </c>
-      <c r="Z36" s="45">
+      <c r="Z36" s="44">
         <v>90.99</v>
       </c>
       <c r="AA36" s="2">
@@ -3232,7 +3255,7 @@
       <c r="G37">
         <v>7</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="44">
         <f t="shared" si="0"/>
         <v>96.377946761590266</v>
       </c>
@@ -3248,18 +3271,18 @@
       <c r="L37">
         <v>995</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="43">
         <f t="shared" si="7"/>
         <v>647.07809073345129</v>
       </c>
       <c r="N37">
         <v>22</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="44">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="44">
         <f t="shared" si="1"/>
         <v>91.663009027008144</v>
       </c>
@@ -3274,15 +3297,15 @@
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="T37" s="45">
+      <c r="T37" s="44">
         <f t="shared" si="4"/>
         <v>330.11730005192328</v>
       </c>
-      <c r="U37" s="45">
+      <c r="U37" s="44">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="V37" s="45">
+      <c r="V37" s="44">
         <f t="shared" si="6"/>
         <v>97.63014142101062</v>
       </c>
@@ -3295,7 +3318,7 @@
       <c r="Y37" s="2">
         <v>2</v>
       </c>
-      <c r="Z37" s="45">
+      <c r="Z37" s="44">
         <v>108.96</v>
       </c>
       <c r="AA37" s="2">
@@ -3326,7 +3349,7 @@
       <c r="G38">
         <v>28</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="44">
         <f t="shared" si="0"/>
         <v>66.50739175011725</v>
       </c>
@@ -3342,18 +3365,18 @@
       <c r="L38">
         <v>2209</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="43">
         <f t="shared" si="7"/>
         <v>2504.9895505855789</v>
       </c>
       <c r="N38">
         <v>45</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="44">
         <f t="shared" si="10"/>
         <v>45.860465116279066</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="44">
         <f t="shared" si="1"/>
         <v>65.652889692081288</v>
       </c>
@@ -3368,15 +3391,15 @@
         <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="T38" s="45">
+      <c r="T38" s="44">
         <f t="shared" si="4"/>
         <v>1218.663737548</v>
       </c>
-      <c r="U38" s="45">
+      <c r="U38" s="44">
         <f t="shared" si="13"/>
         <v>28.56</v>
       </c>
-      <c r="V38" s="45">
+      <c r="V38" s="44">
         <f t="shared" si="6"/>
         <v>69.849771499997672</v>
       </c>
@@ -3389,7 +3412,7 @@
       <c r="Y38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z38" s="45">
+      <c r="Z38" s="44">
         <v>100.99</v>
       </c>
       <c r="AA38" s="2">
@@ -3420,7 +3443,7 @@
       <c r="G39">
         <v>18</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="44">
         <f t="shared" si="0"/>
         <v>100.21827991778608</v>
       </c>
@@ -3436,18 +3459,18 @@
       <c r="L39">
         <v>1313</v>
       </c>
-      <c r="M39" s="44">
+      <c r="M39" s="43">
         <f t="shared" si="7"/>
         <v>1190.8536560424668</v>
       </c>
       <c r="N39">
         <v>29</v>
       </c>
-      <c r="O39" s="45">
+      <c r="O39" s="44">
         <f t="shared" si="10"/>
         <v>29.464285714285712</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39" s="44">
         <f t="shared" si="1"/>
         <v>81.489164601988762</v>
       </c>
@@ -3462,15 +3485,15 @@
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="T39" s="45">
+      <c r="T39" s="44">
         <f t="shared" si="4"/>
         <v>685</v>
       </c>
-      <c r="U39" s="45">
+      <c r="U39" s="44">
         <f t="shared" si="13"/>
         <v>22.166666666666664</v>
       </c>
-      <c r="V39" s="45">
+      <c r="V39" s="44">
         <f t="shared" si="6"/>
         <v>85.180749989399715</v>
       </c>
@@ -3483,7 +3506,7 @@
       <c r="Y39" s="2">
         <v>1.7</v>
       </c>
-      <c r="Z39" s="45">
+      <c r="Z39" s="44">
         <v>106.53</v>
       </c>
       <c r="AA39" s="2">
@@ -3514,7 +3537,7 @@
       <c r="G40">
         <v>18</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="44">
         <f t="shared" si="0"/>
         <v>80.490059595598339</v>
       </c>
@@ -3530,18 +3553,18 @@
       <c r="L40">
         <v>1394</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="43">
         <f t="shared" si="7"/>
         <v>1031.7795889835377</v>
       </c>
       <c r="N40">
         <v>26</v>
       </c>
-      <c r="O40" s="45">
+      <c r="O40" s="44">
         <f t="shared" si="10"/>
         <v>26.142857142857139</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="44">
         <f t="shared" si="1"/>
         <v>78.680637460295245</v>
       </c>
@@ -3556,15 +3579,15 @@
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="T40" s="45">
+      <c r="T40" s="44">
         <f t="shared" si="4"/>
         <v>525.14480890100879</v>
       </c>
-      <c r="U40" s="45">
+      <c r="U40" s="44">
         <f t="shared" si="13"/>
         <v>13.59375</v>
       </c>
-      <c r="V40" s="45">
+      <c r="V40" s="44">
         <f t="shared" si="6"/>
         <v>84.102181869771343</v>
       </c>
@@ -3577,7 +3600,7 @@
       <c r="Y40" s="2">
         <v>1.8</v>
       </c>
-      <c r="Z40" s="45">
+      <c r="Z40" s="44">
         <v>109.93</v>
       </c>
       <c r="AA40" s="2">
@@ -3608,7 +3631,7 @@
       <c r="G41">
         <v>14</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="44">
         <f t="shared" si="0"/>
         <v>75.677322710993906</v>
       </c>
@@ -3624,18 +3647,18 @@
       <c r="L41">
         <v>2551</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="43">
         <f t="shared" si="7"/>
         <v>1516.5623428481663</v>
       </c>
       <c r="N41">
         <v>29</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="44">
         <f t="shared" si="10"/>
         <v>29.866666666666667</v>
       </c>
-      <c r="P41" s="45">
+      <c r="P41" s="44">
         <f t="shared" si="1"/>
         <v>73.659355553003223</v>
       </c>
@@ -3650,15 +3673,15 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="T41" s="45">
+      <c r="T41" s="44">
         <f t="shared" si="4"/>
         <v>871.2541501125005</v>
       </c>
-      <c r="U41" s="45">
+      <c r="U41" s="44">
         <f t="shared" si="13"/>
         <v>16.706896551724139</v>
       </c>
-      <c r="V41" s="45">
+      <c r="V41" s="44">
         <f t="shared" si="6"/>
         <v>79.590751914929541</v>
       </c>
@@ -3671,7 +3694,7 @@
       <c r="Y41" s="2">
         <v>3</v>
       </c>
-      <c r="Z41" s="45">
+      <c r="Z41" s="44">
         <v>91.29</v>
       </c>
       <c r="AA41" s="2">
@@ -3702,7 +3725,7 @@
       <c r="G42">
         <v>126</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="44">
         <f t="shared" si="0"/>
         <v>35.551209942503021</v>
       </c>
@@ -3718,18 +3741,18 @@
       <c r="L42">
         <v>6989</v>
       </c>
-      <c r="M42" s="44">
+      <c r="M42" s="43">
         <f t="shared" si="7"/>
         <v>12768.54596016944</v>
       </c>
       <c r="N42">
         <v>121</v>
       </c>
-      <c r="O42" s="45">
+      <c r="O42" s="44">
         <f t="shared" si="10"/>
         <v>121.69545454545455</v>
       </c>
-      <c r="P42" s="45">
+      <c r="P42" s="44">
         <f t="shared" si="1"/>
         <v>34.883536569659782</v>
       </c>
@@ -3744,15 +3767,15 @@
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
-      <c r="T42" s="45">
+      <c r="T42" s="44">
         <f t="shared" si="4"/>
         <v>8241.626445882679</v>
       </c>
-      <c r="U42" s="45">
+      <c r="U42" s="44">
         <f t="shared" si="13"/>
         <v>61.931034482758619</v>
       </c>
-      <c r="V42" s="45">
+      <c r="V42" s="44">
         <f t="shared" si="6"/>
         <v>38.205363404039474</v>
       </c>
@@ -3765,7 +3788,7 @@
       <c r="Y42" s="2">
         <v>2.9</v>
       </c>
-      <c r="Z42" s="45">
+      <c r="Z42" s="44">
         <v>89.3</v>
       </c>
       <c r="AA42" s="2">
@@ -3796,7 +3819,7 @@
       <c r="G43">
         <v>115</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="44">
         <f t="shared" si="0"/>
         <v>41.261822190182841</v>
       </c>
@@ -3812,18 +3835,18 @@
       <c r="L43">
         <v>4985</v>
       </c>
-      <c r="M43" s="44">
+      <c r="M43" s="43">
         <f t="shared" si="7"/>
         <v>8233.4472523567692</v>
       </c>
       <c r="N43">
         <v>133</v>
       </c>
-      <c r="O43" s="45">
+      <c r="O43" s="44">
         <f t="shared" si="10"/>
         <v>133.69594594594597</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="44">
         <f t="shared" si="1"/>
         <v>38.524719090389681</v>
       </c>
@@ -3838,15 +3861,15 @@
         <f t="shared" si="12"/>
         <v>89</v>
       </c>
-      <c r="T43" s="45">
+      <c r="T43" s="44">
         <f t="shared" si="4"/>
         <v>5096.402210170555</v>
       </c>
-      <c r="U43" s="45">
+      <c r="U43" s="44">
         <f t="shared" si="13"/>
         <v>84.491228070175438</v>
       </c>
-      <c r="V43" s="45">
+      <c r="V43" s="44">
         <f t="shared" si="6"/>
         <v>43.064991610792418</v>
       </c>
@@ -3859,7 +3882,7 @@
       <c r="Y43" s="2">
         <v>2.8</v>
       </c>
-      <c r="Z43" s="45">
+      <c r="Z43" s="44">
         <v>95.54</v>
       </c>
       <c r="AA43" s="2">
@@ -3890,7 +3913,7 @@
       <c r="G44" s="1">
         <v>95</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="44">
         <f t="shared" si="0"/>
         <v>51.92311971241206</v>
       </c>
@@ -3906,18 +3929,18 @@
       <c r="L44" s="1">
         <v>3888</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="43">
         <f t="shared" si="7"/>
         <v>5144.4399386600226</v>
       </c>
       <c r="N44" s="1">
         <v>77</v>
       </c>
-      <c r="O44" s="45">
+      <c r="O44" s="44">
         <f t="shared" si="10"/>
         <v>77.69047619047619</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="44">
         <f t="shared" si="1"/>
         <v>49.875813495053507</v>
       </c>
@@ -3932,15 +3955,15 @@
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="T44" s="45">
+      <c r="T44" s="44">
         <f t="shared" si="4"/>
         <v>3268.060584376321</v>
       </c>
-      <c r="U44" s="45">
+      <c r="U44" s="44">
         <f t="shared" si="13"/>
         <v>60.227272727272727</v>
       </c>
-      <c r="V44" s="45">
+      <c r="V44" s="44">
         <f t="shared" si="6"/>
         <v>54.433743984780932</v>
       </c>
@@ -3953,7 +3976,7 @@
       <c r="Y44" s="4">
         <v>4.5</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="45">
         <v>90.09</v>
       </c>
       <c r="AA44" s="4">
@@ -3962,13 +3985,6 @@
       <c r="AB44" s="35">
         <v>95</v>
       </c>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D45" s="25">
@@ -4067,190 +4083,230 @@
         <f t="shared" si="15"/>
         <v>2.6625806451612903</v>
       </c>
-      <c r="AB45" s="20">
-        <f>AVERAGE(D45,J45,R45)</f>
-        <v>334.1720430107527</v>
-      </c>
-      <c r="AC45" s="21">
-        <f>AVERAGE(E45,K45,S45)</f>
-        <v>64.612903225806448</v>
-      </c>
-      <c r="AD45" s="21">
-        <f>AVERAGE(F45,L45,T45)</f>
-        <v>2069.8919139681593</v>
-      </c>
-      <c r="AE45" s="21">
-        <f>AVERAGE(G45,N45,U45)</f>
-        <v>39.239606275992443</v>
-      </c>
-      <c r="AF45" s="21">
-        <f>AVERAGE(I45,Q45,W45)</f>
-        <v>4.4607526881720423</v>
-      </c>
-      <c r="AG45" s="21">
-        <f>AVERAGE(H45,P45,V45)</f>
-        <v>73.25365693045498</v>
-      </c>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB45" s="50">
+        <f>AVERAGE(AB14:AB44)</f>
+        <v>47.41935483870968</v>
+      </c>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="H46" s="34">
+        <f>MAX(0,(171 - 5.2 * LN(F45) - 0.23 * (I45) - 16.2 * LN(AB45))*100 / 171)</f>
+        <v>39.511620200092004</v>
+      </c>
+      <c r="P46" s="34">
+        <f>MAX(0,(171 - 5.2 * LN(M45) - 0.23 * (Q45) - 16.2 * LN(AB45))*100 / 171)</f>
+        <v>38.617123093716891</v>
+      </c>
+      <c r="V46" s="34">
+        <f>MAX(0,(171 - 5.2 * LN(T45) - 0.23 * (W45) - 16.2 * LN(AB45))*100 / 171)</f>
+        <v>40.827108655801887</v>
+      </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AB46" s="20">
+        <f>AVERAGE(D45,J45,R45)</f>
+        <v>334.1720430107527</v>
+      </c>
+      <c r="AC46" s="21">
+        <f>AVERAGE(E45,K45,S45)</f>
+        <v>64.612903225806448</v>
+      </c>
+      <c r="AD46" s="21">
+        <f>AVERAGE(F45,L45,T45)</f>
+        <v>2069.8919139681593</v>
+      </c>
+      <c r="AE46" s="21">
+        <f>AVERAGE(G45,N45,U45)</f>
+        <v>39.239606275992443</v>
+      </c>
+      <c r="AF46" s="21">
+        <f>AVERAGE(I45,Q45,W45)</f>
+        <v>4.4607526881720423</v>
+      </c>
+      <c r="AG46" s="21">
+        <f>AVERAGE(H45,P45,V45)</f>
+        <v>73.25365693045498</v>
+      </c>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="V47" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB47" s="20">
         <f>MIN(D45,J45,R45)</f>
         <v>257.29032258064518</v>
       </c>
-      <c r="AC46" s="21">
+      <c r="AC47" s="21">
         <f>MIN(E45,K45,S45)</f>
         <v>46.41935483870968</v>
       </c>
-      <c r="AD46" s="21">
+      <c r="AD47" s="21">
         <f>MIN(F45,L45,T45)</f>
         <v>1507.1273548077031</v>
       </c>
-      <c r="AE46" s="21">
+      <c r="AE47" s="21">
         <f>MIN(G45,N45,U45)</f>
         <v>33.170431731203138</v>
       </c>
-      <c r="AF46" s="21">
+      <c r="AF47" s="21">
         <f>MIN(I45,Q45,W45,Y45,AA45)</f>
         <v>2.6625806451612903</v>
       </c>
-      <c r="AG46" s="21">
+      <c r="AG47" s="21">
         <f>MIN(H45,P45,V45,Z45)</f>
         <v>70.65553882489985</v>
       </c>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="24" t="s">
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="AB47" s="20">
+    <row r="48" spans="2:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB48" s="20">
         <f>MAX(D45,J45,R45)</f>
         <v>393.29032258064518</v>
       </c>
-      <c r="AC47" s="21">
+      <c r="AC48" s="21">
         <f>MAX(E45,K45,S45)</f>
         <v>74.225806451612897</v>
       </c>
-      <c r="AD47" s="21">
+      <c r="AD48" s="21">
         <f>MAX(F45,L45,T45)</f>
         <v>2447.6451612903224</v>
       </c>
-      <c r="AE47" s="21">
+      <c r="AE48" s="21">
         <f>MAX(G45,N45,U45)</f>
         <v>47.838709677419352</v>
       </c>
-      <c r="AF47" s="21">
+      <c r="AF48" s="21">
         <f>MAX(I45,Q45,W45,Y45,AA45)</f>
         <v>7.354838709677419</v>
       </c>
-      <c r="AG47" s="21">
+      <c r="AG48" s="21">
         <f>MAX(H45,P45,V45,Z45)</f>
         <v>95.995806451612921</v>
       </c>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="24" t="s">
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB48" s="19">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AB49" s="19">
         <f>_xlfn.STDEV.P(D45,J45,R45)</f>
         <v>56.92483273812806</v>
       </c>
-      <c r="AC48" s="9">
+      <c r="AC49" s="9">
         <f>_xlfn.STDEV.P(E45,K45,S45)</f>
         <v>12.871681873092948</v>
       </c>
-      <c r="AD48" s="9">
+      <c r="AD49" s="9">
         <f>_xlfn.STDEV.P(F45,L45,T45)</f>
         <v>405.63968018329842</v>
       </c>
-      <c r="AE48" s="9">
+      <c r="AE49" s="9">
         <f>_xlfn.STDEV.P(G45,N45,U45)</f>
         <v>6.2497999696843083</v>
       </c>
-      <c r="AF48" s="9">
+      <c r="AF49" s="9">
         <f>_xlfn.STDEV.P(I45,Q45,W45)</f>
         <v>2.0646966038948227</v>
       </c>
-      <c r="AG48" s="9">
+      <c r="AG49" s="9">
         <f>_xlfn.STDEV.P(H45,P45,V45)</f>
         <v>1.9941649481951012</v>
       </c>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="24" t="s">
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AB49" s="19">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AB50" s="19">
         <f>_xlfn.VAR.P(D45,J45,R45)</f>
         <v>3240.4365822638565</v>
       </c>
-      <c r="AC49" s="9">
+      <c r="AC50" s="9">
         <f>_xlfn.VAR.P(E45,K45,S45)</f>
         <v>165.68019424210959</v>
       </c>
-      <c r="AD49" s="9">
+      <c r="AD50" s="9">
         <f>_xlfn.VAR.P(F45,L45,T45)</f>
         <v>164543.55013920864</v>
       </c>
-      <c r="AE49" s="9">
+      <c r="AE50" s="9">
         <f>_xlfn.VAR.P(G45,N45,U45)</f>
         <v>39.05999966106598</v>
       </c>
-      <c r="AF49" s="9">
+      <c r="AF50" s="9">
         <f>_xlfn.VAR.P(I45,Q45,W45)</f>
         <v>4.2629720661348136</v>
       </c>
-      <c r="AG49" s="9">
+      <c r="AG50" s="9">
         <f>_xlfn.VAR.P(H45,P45,V45)</f>
         <v>3.9766938406099706</v>
       </c>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="24" t="s">
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB50" s="28" t="s">
+    <row r="51" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB51" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AC50" s="3" t="s">
+      <c r="AC51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD50" s="3" t="s">
+      <c r="AD51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE50" s="3" t="s">
+      <c r="AE51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF50" s="3" t="s">
+      <c r="AF51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG50" s="3" t="s">
+      <c r="AG51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="4"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="4"/>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AG52" s="34">
+        <f>AVERAGE(H46,P46,V46)</f>
+        <v>39.651950649870258</v>
+      </c>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="50"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="30" t="s">
         <v>38</v>
       </c>
@@ -4265,6 +4321,10 @@
       <c r="M53" s="2"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
+      <c r="AG53" s="29">
+        <f>_xlfn.STDEV.P(H46,P46,V46)</f>
+        <v>0.90766312491924694</v>
+      </c>
     </row>
     <row r="54" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
@@ -4302,6 +4362,9 @@
         <v>63</v>
       </c>
       <c r="N54" s="9"/>
+      <c r="AG54" s="51" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="55" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
